--- a/GR Raw Data Condensed.xlsx
+++ b/GR Raw Data Condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Data Analytics B14 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D166622-31E0-4048-B712-F49F2749E9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FF5D07-6350-4D20-87A9-7AF670886469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAC6647E-A5B8-4C45-BC6A-747BF2ECFF34}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>2021 Total</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Cat</t>
   </si>
 </sst>
 </file>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE713B7-D7CF-4EEA-897C-9EE768AB9230}">
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,119 +670,119 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
       <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>9</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>10</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>11</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>12</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>13</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>14</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>16</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>17</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>13</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>15</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>16</v>
       </c>
       <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>698</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>81</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>294</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>108</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>883</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>233</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>534</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>2081</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>492</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>4946</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>886</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>120</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>144</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>1137</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>212</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>663</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>839</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <f>SUM(B4:B20)</f>

--- a/GR Raw Data Condensed.xlsx
+++ b/GR Raw Data Condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Data Analytics B14 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FF5D07-6350-4D20-87A9-7AF670886469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E188AED7-A619-4949-AFCC-0B711C13F212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAC6647E-A5B8-4C45-BC6A-747BF2ECFF34}"/>
   </bookViews>
@@ -74,6 +74,9 @@
     <t>2021 Total</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -162,9 +165,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Cat</t>
   </si>
 </sst>
 </file>
@@ -670,119 +670,119 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="P3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="Q3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="R3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="S3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="T3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="U3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="V3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="W3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="X3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Y3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>15</v>
-      </c>
       <c r="Z3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>698</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>81</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>294</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>108</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>883</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>233</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>534</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>2081</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>492</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>4946</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>886</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>120</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>144</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>1137</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>212</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>663</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>839</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <f>SUM(B4:B20)</f>

--- a/GR Raw Data Condensed.xlsx
+++ b/GR Raw Data Condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Data Analytics B14 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E188AED7-A619-4949-AFCC-0B711C13F212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4B9944-3029-499A-ADC2-A3C209C6D4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAC6647E-A5B8-4C45-BC6A-747BF2ECFF34}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>2021 Total</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Cat</t>
   </si>
 </sst>
 </file>
@@ -670,119 +670,119 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
       <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>9</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>10</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>11</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>12</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>13</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>14</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>16</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>17</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>13</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>15</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>16</v>
       </c>
       <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>698</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>81</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>294</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>108</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>883</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>233</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>534</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>2081</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>492</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>4946</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>886</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>120</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>144</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>1137</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>212</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>663</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>839</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <f>SUM(B4:B20)</f>

--- a/GR Raw Data Condensed.xlsx
+++ b/GR Raw Data Condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Data Analytics B14 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4B9944-3029-499A-ADC2-A3C209C6D4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B3FE2C-B464-42A9-8BE9-095EC2073463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAC6647E-A5B8-4C45-BC6A-747BF2ECFF34}"/>
   </bookViews>
@@ -74,6 +74,9 @@
     <t>2021 Total</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -162,9 +165,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Cat</t>
   </si>
 </sst>
 </file>
@@ -670,119 +670,119 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="P3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="Q3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="R3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="S3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="T3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="U3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="V3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="W3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="X3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Y3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>15</v>
-      </c>
       <c r="Z3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>698</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>81</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>294</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>108</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>883</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>233</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>534</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>2081</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>492</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>4946</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>886</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>120</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>144</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>1137</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>212</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>663</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>839</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <f>SUM(B4:B20)</f>

--- a/GR Raw Data Condensed.xlsx
+++ b/GR Raw Data Condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Data Analytics B14 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B3FE2C-B464-42A9-8BE9-095EC2073463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC14C9-10B2-4073-BFB9-E8D6BBB64F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAC6647E-A5B8-4C45-BC6A-747BF2ECFF34}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Sum of Items</t>
   </si>
@@ -77,42 +77,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>Appliances</t>
   </si>
   <si>
@@ -165,6 +129,111 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Jan_2019</t>
+  </si>
+  <si>
+    <t>Feb_2019</t>
+  </si>
+  <si>
+    <t>Mar_2019</t>
+  </si>
+  <si>
+    <t>Apr_2019</t>
+  </si>
+  <si>
+    <t>May_2019</t>
+  </si>
+  <si>
+    <t>Jun_2019</t>
+  </si>
+  <si>
+    <t>Jul_2019</t>
+  </si>
+  <si>
+    <t>Aug_2019</t>
+  </si>
+  <si>
+    <t>Sep_2019</t>
+  </si>
+  <si>
+    <t>Oct_2019</t>
+  </si>
+  <si>
+    <t>Nov_2019</t>
+  </si>
+  <si>
+    <t>Dec_2019</t>
+  </si>
+  <si>
+    <t>Jan_2020</t>
+  </si>
+  <si>
+    <t>Feb_2020</t>
+  </si>
+  <si>
+    <t>Mar_2020</t>
+  </si>
+  <si>
+    <t>Apr_2020</t>
+  </si>
+  <si>
+    <t>May_2020</t>
+  </si>
+  <si>
+    <t>Jun_2020</t>
+  </si>
+  <si>
+    <t>Jul_2020</t>
+  </si>
+  <si>
+    <t>Aug_2020</t>
+  </si>
+  <si>
+    <t>Sep_2020</t>
+  </si>
+  <si>
+    <t>Oct_2020</t>
+  </si>
+  <si>
+    <t>Nov_2020</t>
+  </si>
+  <si>
+    <t>Dec_2020</t>
+  </si>
+  <si>
+    <t>Jan_2021</t>
+  </si>
+  <si>
+    <t>Feb_2021</t>
+  </si>
+  <si>
+    <t>Mar_2021</t>
+  </si>
+  <si>
+    <t>Apr_2021</t>
+  </si>
+  <si>
+    <t>May_2021</t>
+  </si>
+  <si>
+    <t>Jun_2021</t>
+  </si>
+  <si>
+    <t>Jul_2021</t>
+  </si>
+  <si>
+    <t>Aug_2021</t>
+  </si>
+  <si>
+    <t>Sep_2021</t>
+  </si>
+  <si>
+    <t>Oct_2021</t>
+  </si>
+  <si>
+    <t>Nov_2021</t>
   </si>
 </sst>
 </file>
@@ -595,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE713B7-D7CF-4EEA-897C-9EE768AB9230}">
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,116 +742,116 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="W3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="X3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="AC3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="AD3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="AE3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AF3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="AG3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="AH3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="AI3" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="AL3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>698</v>
@@ -901,7 +970,7 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>81</v>
@@ -1020,7 +1089,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>294</v>
@@ -1139,7 +1208,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>108</v>
@@ -1258,7 +1327,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>883</v>
@@ -1377,7 +1446,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>233</v>
@@ -1496,7 +1565,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>534</v>
@@ -1615,7 +1684,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>2081</v>
@@ -1734,7 +1803,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>492</v>
@@ -1853,7 +1922,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>4946</v>
@@ -1972,7 +2041,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>886</v>
@@ -2091,7 +2160,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>120</v>
@@ -2210,7 +2279,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>144</v>
@@ -2329,7 +2398,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>1137</v>
@@ -2448,7 +2517,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>212</v>
@@ -2567,7 +2636,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>663</v>
@@ -2686,7 +2755,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>839</v>
@@ -2809,7 +2878,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <f>SUM(B4:B20)</f>

--- a/GR Raw Data Condensed.xlsx
+++ b/GR Raw Data Condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Data Analytics B14 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC14C9-10B2-4073-BFB9-E8D6BBB64F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97797419-21B6-4296-AA92-7498D6DA9749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAC6647E-A5B8-4C45-BC6A-747BF2ECFF34}"/>
   </bookViews>
@@ -664,13 +664,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE713B7-D7CF-4EEA-897C-9EE768AB9230}">
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="27" max="27" width="15.77734375" customWidth="1"/>
     <col min="39" max="39" width="13.109375" customWidth="1"/>
@@ -686,6 +687,9 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="4">
         <v>2019</v>
       </c>
@@ -738,9 +742,6 @@
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>

--- a/GR Raw Data Condensed.xlsx
+++ b/GR Raw Data Condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Data Analytics B14 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97797419-21B6-4296-AA92-7498D6DA9749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCA7075-8589-4206-AA3A-26216D9BCA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAC6647E-A5B8-4C45-BC6A-747BF2ECFF34}"/>
   </bookViews>
@@ -285,13 +285,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,7 +668,7 @@
   <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +690,7 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
@@ -742,6 +745,7 @@
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -3273,10 +3277,11 @@
       <c r="X44" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Z2"/>
     <mergeCell ref="AB2:AL2"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GR Raw Data Condensed.xlsx
+++ b/GR Raw Data Condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Data Analytics B14 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCA7075-8589-4206-AA3A-26216D9BCA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A60C825-E660-4C53-BD15-036F591DF9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAC6647E-A5B8-4C45-BC6A-747BF2ECFF34}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Sum of Items</t>
   </si>
@@ -667,9 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE713B7-D7CF-4EEA-897C-9EE768AB9230}">
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -745,7 +743,9 @@
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -3277,11 +3277,10 @@
       <c r="X44" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Z2"/>
     <mergeCell ref="AB2:AL2"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GR Raw Data Condensed.xlsx
+++ b/GR Raw Data Condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Data Analytics B14 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A60C825-E660-4C53-BD15-036F591DF9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF1E16A-C31A-4432-8ACD-21299F405D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAC6647E-A5B8-4C45-BC6A-747BF2ECFF34}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Sum of Items</t>
   </si>
@@ -667,7 +667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE713B7-D7CF-4EEA-897C-9EE768AB9230}">
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -688,9 +690,7 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="5"/>
       <c r="B2" s="4">
         <v>2019</v>
       </c>
